--- a/bin/output/factor_analyis/factor_loadings/Trustworthy_Factor_loadings.xlsx
+++ b/bin/output/factor_analyis/factor_loadings/Trustworthy_Factor_loadings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanlong/Documents/program/python/src/xuanlong/alg/Integrating_SCM_SD/bin/output/factor_analyis/factor_loadings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78938B5A-0E57-8345-8331-626BC2A7613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7C6F9-EF0A-984E-8342-BCA89E6A5270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27680" yWindow="4860" windowWidth="28240" windowHeight="17440" xr2:uid="{5330614F-7BD3-F040-8D11-69A1D3842093}"/>
+    <workbookView xWindow="5200" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{5330614F-7BD3-F040-8D11-69A1D3842093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,10 +487,13 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -529,72 +532,72 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.59909999999999997</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="C2">
-        <v>-0.1734</v>
+        <v>-0.219</v>
       </c>
       <c r="D2">
-        <v>4.0000000000000001E-3</v>
+        <v>-0.1973</v>
       </c>
       <c r="E2">
-        <v>0.15759999999999999</v>
+        <v>-0.20080000000000001</v>
       </c>
       <c r="F2">
-        <v>9.2499999999999999E-2</v>
+        <v>0.1618</v>
       </c>
       <c r="G2">
-        <v>-0.26910000000000001</v>
+        <v>0.1487</v>
       </c>
       <c r="H2">
-        <v>-0.11600000000000001</v>
+        <v>5.96E-2</v>
       </c>
       <c r="I2">
-        <v>1.1599999999999999E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="J2">
-        <v>-2.1100000000000001E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="K2">
-        <v>1.1999999999999999E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.2475</v>
+        <v>0.59909999999999997</v>
       </c>
       <c r="C3">
-        <v>-0.18609999999999999</v>
+        <v>-0.1734</v>
       </c>
       <c r="D3">
-        <v>0.1389</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>0.30730000000000002</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="F3">
-        <v>-0.1895</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>-5.0500000000000003E-2</v>
+        <v>-0.26910000000000001</v>
       </c>
       <c r="H3">
-        <v>0.1221</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="I3">
-        <v>7.17E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J3">
-        <v>8.9999999999999993E-3</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="K3">
-        <v>-7.1000000000000004E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -634,495 +637,498 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.50519999999999998</v>
+        <v>0.5403</v>
       </c>
       <c r="C5">
-        <v>0.35370000000000001</v>
+        <v>0.2631</v>
       </c>
       <c r="D5">
-        <v>-4.1500000000000002E-2</v>
+        <v>-0.13619999999999999</v>
       </c>
       <c r="E5">
-        <v>-0.1517</v>
+        <v>-0.16919999999999999</v>
       </c>
       <c r="F5">
-        <v>0.11070000000000001</v>
+        <v>7.5300000000000006E-2</v>
       </c>
       <c r="G5">
-        <v>-6.8099999999999994E-2</v>
+        <v>-5.0299999999999997E-2</v>
       </c>
       <c r="H5">
-        <v>-6.3799999999999996E-2</v>
+        <v>4.87E-2</v>
       </c>
       <c r="I5">
-        <v>-8.9899999999999994E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J5">
-        <v>5.57E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="K5">
-        <v>-2.3E-3</v>
+        <v>-1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.36270000000000002</v>
+        <v>0.51580000000000004</v>
       </c>
       <c r="C6">
-        <v>0.1736</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D6">
-        <v>0.39389999999999997</v>
+        <v>-0.28510000000000002</v>
       </c>
       <c r="E6">
-        <v>-5.5100000000000003E-2</v>
+        <v>0.19409999999999999</v>
       </c>
       <c r="F6">
-        <v>-3.7000000000000002E-3</v>
+        <v>-1.6899999999999998E-2</v>
       </c>
       <c r="G6">
-        <v>0.1305</v>
+        <v>0.2092</v>
       </c>
       <c r="H6">
-        <v>0.1147</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="I6">
-        <v>-7.4800000000000005E-2</v>
+        <v>-6.3200000000000006E-2</v>
       </c>
       <c r="J6">
-        <v>3.5000000000000003E-2</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="K6">
-        <v>-1.2999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.47920000000000001</v>
+        <v>0.50519999999999998</v>
       </c>
       <c r="C7">
-        <v>-0.49719999999999998</v>
+        <v>0.35370000000000001</v>
       </c>
       <c r="D7">
-        <v>5.1799999999999999E-2</v>
+        <v>-4.1500000000000002E-2</v>
       </c>
       <c r="E7">
-        <v>-0.1653</v>
+        <v>-0.1517</v>
       </c>
       <c r="F7">
-        <v>4.6399999999999997E-2</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="G7">
-        <v>-0.1106</v>
+        <v>-6.8099999999999994E-2</v>
       </c>
       <c r="H7">
-        <v>-9.0300000000000005E-2</v>
+        <v>-6.3799999999999996E-2</v>
       </c>
       <c r="I7">
-        <v>-2.0500000000000001E-2</v>
+        <v>-8.9899999999999994E-2</v>
       </c>
       <c r="J7">
-        <v>4.2599999999999999E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="K7">
-        <v>-3.3E-3</v>
+        <v>-2.3E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2432</v>
+        <v>0.50380000000000003</v>
       </c>
       <c r="C8">
-        <v>0.3261</v>
+        <v>0.10580000000000001</v>
       </c>
       <c r="D8">
-        <v>2.8400000000000002E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>4.7500000000000001E-2</v>
+        <v>0.1245</v>
       </c>
       <c r="F8">
-        <v>9.7199999999999995E-2</v>
+        <v>-0.3513</v>
       </c>
       <c r="G8">
-        <v>-0.1065</v>
+        <v>-0.16919999999999999</v>
       </c>
       <c r="H8">
-        <v>-3.8999999999999998E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="I8">
-        <v>4.1500000000000002E-2</v>
+        <v>-4.48E-2</v>
       </c>
       <c r="J8">
-        <v>7.0699999999999999E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="K8">
-        <v>1.35E-2</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.61070000000000002</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="C9">
-        <v>-0.219</v>
+        <v>-0.17430000000000001</v>
       </c>
       <c r="D9">
-        <v>-0.1973</v>
+        <v>-0.30620000000000003</v>
       </c>
       <c r="E9">
-        <v>-0.20080000000000001</v>
+        <v>0.1007</v>
       </c>
       <c r="F9">
-        <v>0.1618</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="G9">
-        <v>0.1487</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="H9">
-        <v>5.96E-2</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="I9">
-        <v>3.32E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="J9">
-        <v>8.8000000000000005E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="K9">
-        <v>-1.1999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.5403</v>
+        <v>0.47920000000000001</v>
       </c>
       <c r="C10">
-        <v>0.2631</v>
+        <v>-0.49719999999999998</v>
       </c>
       <c r="D10">
-        <v>-0.13619999999999999</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>-0.16919999999999999</v>
+        <v>-0.1653</v>
       </c>
       <c r="F10">
-        <v>7.5300000000000006E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="G10">
-        <v>-5.0299999999999997E-2</v>
+        <v>-0.1106</v>
       </c>
       <c r="H10">
-        <v>4.87E-2</v>
+        <v>-9.0300000000000005E-2</v>
       </c>
       <c r="I10">
-        <v>6.4000000000000001E-2</v>
+        <v>-2.0500000000000001E-2</v>
       </c>
       <c r="J10">
-        <v>-2.7E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="K10">
-        <v>-1.3899999999999999E-2</v>
+        <v>-3.3E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.50209999999999999</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="C11">
-        <v>-0.17430000000000001</v>
+        <v>-0.1542</v>
       </c>
       <c r="D11">
-        <v>-0.30620000000000003</v>
+        <v>0.247</v>
       </c>
       <c r="E11">
-        <v>0.1007</v>
+        <v>-0.17249999999999999</v>
       </c>
       <c r="F11">
-        <v>7.4499999999999997E-2</v>
+        <v>-0.1229</v>
       </c>
       <c r="G11">
-        <v>-1.7500000000000002E-2</v>
+        <v>0.13830000000000001</v>
       </c>
       <c r="H11">
-        <v>0.12230000000000001</v>
+        <v>-6.4899999999999999E-2</v>
       </c>
       <c r="I11">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="J11">
-        <v>-5.0000000000000001E-4</v>
+        <v>-0.10440000000000001</v>
       </c>
       <c r="K11">
-        <v>7.9000000000000008E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0.50380000000000003</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="C12">
-        <v>0.10580000000000001</v>
+        <v>0.1736</v>
       </c>
       <c r="D12">
-        <v>-5.6000000000000001E-2</v>
+        <v>0.39389999999999997</v>
       </c>
       <c r="E12">
-        <v>0.1245</v>
+        <v>-5.5100000000000003E-2</v>
       </c>
       <c r="F12">
-        <v>-0.3513</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="G12">
-        <v>-0.16919999999999999</v>
+        <v>0.1305</v>
       </c>
       <c r="H12">
-        <v>1.15E-2</v>
+        <v>0.1147</v>
       </c>
       <c r="I12">
-        <v>-4.48E-2</v>
+        <v>-7.4800000000000005E-2</v>
       </c>
       <c r="J12">
-        <v>3.95E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K12">
-        <v>1.5E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.33560000000000001</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="C13">
-        <v>-0.1196</v>
+        <v>0.1676</v>
       </c>
       <c r="D13">
-        <v>0.31850000000000001</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="E13">
-        <v>-0.17100000000000001</v>
+        <v>0.30409999999999998</v>
       </c>
       <c r="F13">
-        <v>-5.4100000000000002E-2</v>
+        <v>0.2666</v>
       </c>
       <c r="G13">
-        <v>4.8800000000000003E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="H13">
-        <v>5.4699999999999999E-2</v>
+        <v>-4.19E-2</v>
       </c>
       <c r="I13">
-        <v>9.5699999999999993E-2</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="J13">
-        <v>9.6199999999999994E-2</v>
+        <v>-4.0099999999999997E-2</v>
       </c>
       <c r="K13">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.2555</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="C14">
-        <v>6.7999999999999996E-3</v>
+        <v>-0.1196</v>
       </c>
       <c r="D14">
-        <v>0.30969999999999998</v>
+        <v>0.31850000000000001</v>
       </c>
       <c r="E14">
-        <v>7.3200000000000001E-2</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="F14">
-        <v>0.14230000000000001</v>
+        <v>-5.4100000000000002E-2</v>
       </c>
       <c r="G14">
-        <v>-0.1492</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>9.3299999999999994E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="I14">
-        <v>-0.1027</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="J14">
-        <v>-8.2000000000000003E-2</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="K14">
-        <v>-3.2000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.33860000000000001</v>
+        <v>0.26529999999999998</v>
       </c>
       <c r="C15">
-        <v>0.1676</v>
+        <v>-3.8800000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0.18779999999999999</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="E15">
-        <v>0.30409999999999998</v>
+        <v>0.27839999999999998</v>
       </c>
       <c r="F15">
-        <v>0.2666</v>
+        <v>-1.01E-2</v>
       </c>
       <c r="G15">
-        <v>7.4200000000000002E-2</v>
+        <v>0.25509999999999999</v>
       </c>
       <c r="H15">
-        <v>-4.19E-2</v>
+        <v>-0.1767</v>
       </c>
       <c r="I15">
-        <v>0.10249999999999999</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="J15">
-        <v>-4.0099999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K15">
-        <v>1.8E-3</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>0.45989999999999998</v>
+        <v>0.2555</v>
       </c>
       <c r="C16">
-        <v>-0.1542</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D16">
-        <v>0.247</v>
+        <v>0.30969999999999998</v>
       </c>
       <c r="E16">
-        <v>-0.17249999999999999</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="F16">
-        <v>-0.1229</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="G16">
-        <v>0.13830000000000001</v>
+        <v>-0.1492</v>
       </c>
       <c r="H16">
-        <v>-6.4899999999999999E-2</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="I16">
-        <v>-1.8800000000000001E-2</v>
+        <v>-0.1027</v>
       </c>
       <c r="J16">
-        <v>-0.10440000000000001</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="K16">
-        <v>0.01</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.51580000000000004</v>
+        <v>0.2475</v>
       </c>
       <c r="C17">
-        <v>-8.9999999999999993E-3</v>
+        <v>-0.18609999999999999</v>
       </c>
       <c r="D17">
-        <v>-0.28510000000000002</v>
+        <v>0.1389</v>
       </c>
       <c r="E17">
-        <v>0.19409999999999999</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="F17">
-        <v>-1.6899999999999998E-2</v>
+        <v>-0.1895</v>
       </c>
       <c r="G17">
-        <v>0.2092</v>
+        <v>-5.0500000000000003E-2</v>
       </c>
       <c r="H17">
-        <v>7.1599999999999997E-2</v>
+        <v>0.1221</v>
       </c>
       <c r="I17">
-        <v>-6.3200000000000006E-2</v>
+        <v>7.17E-2</v>
       </c>
       <c r="J17">
-        <v>-5.5999999999999999E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K17">
-        <v>2.5000000000000001E-3</v>
+        <v>-7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>0.26529999999999998</v>
+        <v>0.2432</v>
       </c>
       <c r="C18">
-        <v>-3.8800000000000001E-2</v>
+        <v>0.3261</v>
       </c>
       <c r="D18">
-        <v>6.4199999999999993E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="E18">
-        <v>0.27839999999999998</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>-1.01E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="G18">
-        <v>0.25509999999999999</v>
+        <v>-0.1065</v>
       </c>
       <c r="H18">
-        <v>-0.1767</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="I18">
-        <v>-4.7E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="J18">
-        <v>0.06</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="K18">
-        <v>-6.7000000000000002E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
+    <sortCondition descending="1" ref="B1:B18"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
